--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf15-Tnfrsf25.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04125833333333333</v>
+        <v>0.1185646666666667</v>
       </c>
       <c r="H2">
-        <v>0.123775</v>
+        <v>0.355694</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>4.029127</v>
+        <v>2.164505666666667</v>
       </c>
       <c r="N2">
-        <v>12.087381</v>
+        <v>6.493517000000001</v>
       </c>
       <c r="O2">
-        <v>0.456533589702208</v>
+        <v>0.5225358117353504</v>
       </c>
       <c r="P2">
-        <v>0.456533589702208</v>
+        <v>0.5225358117353504</v>
       </c>
       <c r="Q2">
-        <v>0.1662350648083333</v>
+        <v>0.2566338928664444</v>
       </c>
       <c r="R2">
-        <v>1.496115583275</v>
+        <v>2.309705035798</v>
       </c>
       <c r="S2">
-        <v>0.456533589702208</v>
+        <v>0.5225358117353504</v>
       </c>
       <c r="T2">
-        <v>0.456533589702208</v>
+        <v>0.5225358117353504</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.04125833333333333</v>
+        <v>0.1185646666666667</v>
       </c>
       <c r="H3">
-        <v>0.123775</v>
+        <v>0.355694</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>2.543712</v>
       </c>
       <c r="O3">
-        <v>0.09607457318740782</v>
+        <v>0.2046934834760502</v>
       </c>
       <c r="P3">
-        <v>0.09607457318740782</v>
+        <v>0.2046934834760502</v>
       </c>
       <c r="Q3">
-        <v>0.03498310586666666</v>
+        <v>0.1005314551253333</v>
       </c>
       <c r="R3">
-        <v>0.3148479527999999</v>
+        <v>0.9047830961279998</v>
       </c>
       <c r="S3">
-        <v>0.09607457318740782</v>
+        <v>0.2046934834760502</v>
       </c>
       <c r="T3">
-        <v>0.09607457318740782</v>
+        <v>0.2046934834760502</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.04125833333333333</v>
+        <v>0.1185646666666667</v>
       </c>
       <c r="H4">
-        <v>0.123775</v>
+        <v>0.355694</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.948446666666667</v>
+        <v>1.129901</v>
       </c>
       <c r="N4">
-        <v>11.84534</v>
+        <v>3.389703</v>
       </c>
       <c r="O4">
-        <v>0.4473918371103842</v>
+        <v>0.2727707047885994</v>
       </c>
       <c r="P4">
-        <v>0.4473918371103842</v>
+        <v>0.2727707047885994</v>
       </c>
       <c r="Q4">
-        <v>0.1629063287222222</v>
+        <v>0.1339663354313333</v>
       </c>
       <c r="R4">
-        <v>1.4661569585</v>
+        <v>1.205697018882</v>
       </c>
       <c r="S4">
-        <v>0.4473918371103842</v>
+        <v>0.2727707047885994</v>
       </c>
       <c r="T4">
-        <v>0.4473918371103842</v>
+        <v>0.2727707047885994</v>
       </c>
     </row>
   </sheetData>
